--- a/①画面設計書_OPLAN画面＿ver1.0_20161012.xlsx
+++ b/①画面設計書_OPLAN画面＿ver1.0_20161012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -317,6 +317,13 @@
     <rPh sb="0" eb="2">
       <t>オオニシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID:01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -324,10 +331,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +398,11 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -549,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,35 +623,44 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,13 +674,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,26 +703,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>72111</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>212724</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="2" name="図 1" descr="スクリーンショット 2016-10-20 21.36.56.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -716,92 +735,177 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9575800" y="342900"/>
-          <a:ext cx="3361411" cy="7642224"/>
+          <a:off x="10325100" y="254000"/>
+          <a:ext cx="3810000" cy="5918200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="190500" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="C8C6BD"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="254000" algn="bl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="perspectiveFront" fov="5400000"/>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="2100000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d extrusionH="25400">
-          <a:bevelT w="304800" h="152400" prst="hardEdge"/>
-          <a:extrusionClr>
-            <a:srgbClr val="000000"/>
-          </a:extrusionClr>
-        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="円/楕円 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="スクリーンショット 2016-10-20 21.32.32.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11391900" y="1066800"/>
-          <a:ext cx="520700" cy="393700"/>
+          <a:off x="11125200" y="2540000"/>
+          <a:ext cx="2311400" cy="838200"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9779000" y="2870200"/>
+          <a:ext cx="1193800" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9499600" y="2806700"/>
+          <a:ext cx="647700" cy="358774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
           <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>①</a:t>
+            <a:t>ID:01</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1236,254 +1340,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="29" t="str">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="str">
         <f>表紙!D3</f>
         <v>目覚ましアプリ</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="22">
+      <c r="F1" s="21"/>
+      <c r="G1" s="23">
         <v>42655</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="23"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26">
+      <c r="F2" s="21"/>
+      <c r="G2" s="25">
         <f>表紙!K17</f>
         <v>42655</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="23" t="str">
+      <c r="J2" s="21"/>
+      <c r="K2" s="20" t="str">
         <f>表紙!K18</f>
         <v>大西</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="21">
+      <c r="A7" s="24">
         <v>1</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22">
+      <c r="B7" s="24"/>
+      <c r="C7" s="23">
         <v>42655</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="43" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:L9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -1499,42 +1633,12 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:L6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1552,10 +1656,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1568,63 +1672,63 @@
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="23" t="str">
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="str">
         <f>表紙!D3</f>
         <v>目覚ましアプリ</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="22">
+      <c r="F1" s="21"/>
+      <c r="G1" s="23">
         <v>42655</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="25" t="s">
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23" t="str">
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="str">
         <f>改版履歴!C2</f>
         <v>OPLAN画面</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26">
+      <c r="F2" s="21"/>
+      <c r="G2" s="25">
         <f>表紙!K17</f>
         <v>42655</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="23" t="str">
+      <c r="J2" s="21"/>
+      <c r="K2" s="20" t="str">
         <f>表紙!K18</f>
         <v>大西</v>
       </c>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L2" s="20"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1656,9 +1760,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>1</v>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -1682,7 +1786,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1694,7 +1798,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1706,7 +1810,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1718,7 +1822,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1730,7 +1834,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1742,7 +1846,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1754,7 +1858,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1766,7 +1870,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1778,7 +1882,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1789,8 +1893,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1802,7 +1909,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1814,7 +1921,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1826,7 +1933,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1838,7 +1945,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1849,8 +1956,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1862,7 +1970,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1874,7 +1982,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1886,7 +1994,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1898,7 +2006,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1910,7 +2018,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1922,7 +2030,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1934,7 +2042,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1946,7 +2054,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1958,7 +2066,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1970,23 +2078,23 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1996,430 +2104,428 @@
       <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="33"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="36"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="36"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="36"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="36"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="32"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="36"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="36"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="32"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="36"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="32"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="36"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="32"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="36"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="36"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="36"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="36"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="36"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="36"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="36"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="32"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="36"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="32"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="36"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="32"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="36"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="32"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="D44:L44"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D46:L46"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A60:L60"/>
     <mergeCell ref="A89:L89"/>
     <mergeCell ref="D32:L32"/>
@@ -2436,18 +2542,20 @@
     <mergeCell ref="D52:L52"/>
     <mergeCell ref="D53:L53"/>
     <mergeCell ref="D48:L48"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="D44:L44"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D46:L46"/>
+    <mergeCell ref="D47:L47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
